--- a/Documents/Finance/Timesheets/Paul Mathema/Timesheet for Week 14.xlsx
+++ b/Documents/Finance/Timesheets/Paul Mathema/Timesheet for Week 14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PM\Desktop\Project Management\Sweng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PM\Documents\GitHub\SWENG\Documents\Finance\Timesheets\Paul Mathema\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t>Weekly Employee Timesheet</t>
   </si>
@@ -105,28 +105,31 @@
     <t>P.Mathema</t>
   </si>
   <si>
-    <t>Sun 30/03</t>
-  </si>
-  <si>
-    <t>Mon 31/03</t>
-  </si>
-  <si>
-    <t>Tue 01/04</t>
-  </si>
-  <si>
-    <t>Fri   04/04</t>
-  </si>
-  <si>
     <t>Sat 05/04</t>
   </si>
   <si>
-    <t>Wed 02/04</t>
-  </si>
-  <si>
-    <t>Thur 03/04</t>
-  </si>
-  <si>
     <t>P.Mathema  (Copy)</t>
+  </si>
+  <si>
+    <t>Sun 06/04</t>
+  </si>
+  <si>
+    <t>Mon 07/04</t>
+  </si>
+  <si>
+    <t>Tue 08/04</t>
+  </si>
+  <si>
+    <t>Wed 09/04</t>
+  </si>
+  <si>
+    <t>Thur 10/04</t>
+  </si>
+  <si>
+    <t>Fri   11/04</t>
+  </si>
+  <si>
+    <t>Sat  12/04</t>
   </si>
 </sst>
 </file>
@@ -946,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:I4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -993,7 +996,7 @@
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="31" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
@@ -1045,7 +1048,7 @@
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="36">
-        <v>41742</v>
+        <v>41735</v>
       </c>
       <c r="H8" s="37"/>
       <c r="I8" s="10" t="s">
@@ -1087,7 +1090,7 @@
     </row>
     <row r="11" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -1105,7 +1108,7 @@
     </row>
     <row r="12" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -1123,7 +1126,7 @@
     </row>
     <row r="13" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>2</v>
@@ -1177,7 +1180,7 @@
     </row>
     <row r="16" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4">
         <v>0</v>
@@ -1195,7 +1198,7 @@
     </row>
     <row r="17" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B17" s="4">
         <v>0</v>
